--- a/biology/Biologie cellulaire et moléculaire/Paire_de_bases/Paire_de_bases.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Paire_de_bases/Paire_de_bases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une paire de bases (pb) est l'appariement de deux bases nucléiques situées sur deux brins complémentaires d'ADN ou ARN. Cet appariement est effectué par des ponts hydrogène. Il y a quatre types de bases nucléiques : adénine (A), thymine (T), cytosine (C) et guanine (G). Pour former une paire de bases, l'adénine s'apparie avec la thymine, et la cytosine s'apparie avec la guanine. 
 </t>
@@ -511,7 +523,9 @@
           <t>Unités de mesure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur des molécules d'ADN ou d'ARN bicaténaires est comptée en paires de bases. Cette unité est notée bp (en anglais base pairs).
 Voir les liens suivants :
@@ -546,7 +560,9 @@
           <t>Liaisons hydrogène, liaisons entre les bases</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les liaisons hydrogène sont le mécanisme chimique qui régit la complémentarité des bases. Cette correspondance est unique grâce à la géométrie des atomes donneurs d'hydrogène et les accepteurs qui forment les bases.
 Dans l'ADN, on observe des paires dites canoniques, ou encore, paires Watson-Crick : l'adénine (symbolisé A) s'apparie avec la thymine (T) grâce à deux ponts hydrogénés, et la guanine (G) s'apparie avec la cytosine (C) par trois ponts hydrogène.
@@ -582,7 +598,9 @@
           <t>Dimensions de la molécule</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La molécule en double hélice de l'ADN (sous sa forme « B », la structure la plus courante) a un diamètre de 2 nm et un pas de 3,4 nm. Sachant qu'il y a dix paires de bases par pas, on peut considérer (même si c'est une approximation discutable sur le plan mathématique) que deux paires sont distantes de 0,34 nm.
 </t>
@@ -613,7 +631,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste de sigles de biologie cellulaire et moléculaire
  Portail de la biologie cellulaire et moléculaire                     </t>
